--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/decision_table.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/decision_table.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1828,14 +1828,14 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -6243,7 +6243,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -6403,7 +6403,7 @@
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6932,14 +6932,14 @@
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -8204,7 +8204,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="AT35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8588,7 +8588,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9122,7 +9122,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="AT38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="AT40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -10025,7 +10025,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -10180,7 +10180,7 @@
       </c>
       <c r="AT42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="AT43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AT46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11210,7 +11210,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="AT48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="AT49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -12208,7 +12208,7 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
@@ -12275,7 +12275,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
@@ -12744,7 +12744,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -12809,7 +12809,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="AT54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12996,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -13196,7 +13196,7 @@
       </c>
       <c r="AT55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13772,7 +13772,7 @@
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="AD58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE58" t="inlineStr">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL58" t="inlineStr">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="AP58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ58" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="AT58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14356,7 +14356,7 @@
       </c>
       <c r="AT60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="AE63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
@@ -14992,7 +14992,7 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="AT65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15548,7 +15548,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -15618,7 +15618,7 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="AT66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -15935,7 +15935,7 @@
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL67" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="AT68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -16424,7 +16424,7 @@
       </c>
       <c r="AP69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ69" t="inlineStr">
@@ -16444,7 +16444,7 @@
       </c>
       <c r="AT69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -16501,7 +16501,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -16676,7 +16676,7 @@
       </c>
       <c r="AT70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17287,7 +17287,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD73" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="AT74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
@@ -17771,7 +17771,7 @@
       </c>
       <c r="AG75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH75" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="AT75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
@@ -18068,7 +18068,7 @@
       </c>
       <c r="AT76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD77" t="inlineStr">
@@ -18317,7 +18317,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -18447,7 +18447,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD78" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="AP78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ78" t="inlineStr">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="AT78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18771,7 +18771,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="AT80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19228,7 +19228,7 @@
       </c>
       <c r="AT81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
@@ -19692,7 +19692,7 @@
       </c>
       <c r="AT83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19839,7 +19839,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD84" t="inlineStr">
@@ -19931,7 +19931,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -20071,7 +20071,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD85" t="inlineStr">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="AP85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ85" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL86" t="inlineStr">
@@ -20405,7 +20405,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -20425,7 +20425,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="AG87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH87" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="AH88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI88" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -21236,7 +21236,7 @@
       </c>
       <c r="AD90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE90" t="inlineStr">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="AT90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21418,7 +21418,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="AT91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21580,7 +21580,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -21650,7 +21650,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="AT92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22199,7 +22199,7 @@
       </c>
       <c r="AK94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL94" t="inlineStr">
@@ -22224,7 +22224,7 @@
       </c>
       <c r="AP94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ94" t="inlineStr">
@@ -22244,14 +22244,14 @@
       </c>
       <c r="AT94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -22431,7 +22431,7 @@
       </c>
       <c r="AK95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL95" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="AP95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ95" t="inlineStr">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="AT95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22588,7 +22588,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
@@ -22628,7 +22628,7 @@
       </c>
       <c r="AD96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE96" t="inlineStr">
@@ -22663,7 +22663,7 @@
       </c>
       <c r="AK96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AL96" t="inlineStr">
@@ -22688,7 +22688,7 @@
       </c>
       <c r="AP96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ96" t="inlineStr">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AT96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -23189,7 +23189,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -23319,7 +23319,7 @@
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD99" t="inlineStr">
@@ -23384,7 +23384,7 @@
       </c>
       <c r="AP99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ99" t="inlineStr">
@@ -23404,7 +23404,7 @@
       </c>
       <c r="AT99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23551,7 +23551,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD100" t="inlineStr">
@@ -23693,7 +23693,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="AP101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ101" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="AT101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/decision_table.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/DataOutput/KNN/decision_table.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -730,17 +730,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1845,12 +1845,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1875,12 +1875,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4659,12 +4659,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6051,7 +6051,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6253,17 +6253,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="AT26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6480,12 +6480,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -6515,12 +6515,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -6690,7 +6690,7 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6747,12 +6747,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -6932,7 +6932,7 @@
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -7675,12 +7675,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -8835,12 +8835,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
@@ -8995,12 +8995,12 @@
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -9020,7 +9020,7 @@
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -9763,12 +9763,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -9783,12 +9783,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -9843,7 +9843,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN41" t="inlineStr">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10202,12 +10202,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -10227,12 +10227,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -10392,7 +10392,7 @@
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="AT43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -10539,12 +10539,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AE44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="AT44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11387,12 +11387,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="AT48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12522,17 +12522,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -12552,7 +12552,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X53" t="inlineStr">
@@ -12712,7 +12712,7 @@
       </c>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ53" t="inlineStr">
@@ -12732,7 +12732,7 @@
       </c>
       <c r="AT53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -13243,12 +13243,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN56" t="inlineStr">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="AT56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -13939,7 +13939,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -13959,12 +13959,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -13994,7 +13994,7 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="AP59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ59" t="inlineStr">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="AT59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14146,12 +14146,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="AM60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN60" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP60" t="inlineStr">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="AT60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="AO61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP61" t="inlineStr">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -14610,7 +14610,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -14695,7 +14695,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="AM62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AN62" t="inlineStr">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ62" t="inlineStr">
@@ -14820,7 +14820,7 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15074,7 +15074,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -15084,7 +15084,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -15124,7 +15124,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="AR64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS64" t="inlineStr">
@@ -15284,7 +15284,7 @@
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -15765,17 +15765,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -15800,7 +15800,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -15815,12 +15815,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -15850,7 +15850,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -15875,7 +15875,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="AM67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN67" t="inlineStr">
@@ -15955,7 +15955,7 @@
       </c>
       <c r="AO67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP67" t="inlineStr">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="AT67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -16723,12 +16723,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -16763,7 +16763,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
@@ -16803,7 +16803,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="AM71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN71" t="inlineStr">
@@ -16883,12 +16883,12 @@
       </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ71" t="inlineStr">
@@ -16908,7 +16908,7 @@
       </c>
       <c r="AT71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -16925,7 +16925,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -16975,12 +16975,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -17105,7 +17105,7 @@
       </c>
       <c r="AM72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN72" t="inlineStr">
@@ -17120,7 +17120,7 @@
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
@@ -17130,7 +17130,7 @@
       </c>
       <c r="AR72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS72" t="inlineStr">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -17389,7 +17389,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -17504,7 +17504,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="AE74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF74" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="AT74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17656,7 +17656,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD75" t="inlineStr">
@@ -17836,7 +17836,7 @@
       </c>
       <c r="AT75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -18115,7 +18115,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18322,7 +18322,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -18427,7 +18427,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -18457,7 +18457,7 @@
       </c>
       <c r="AE78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF78" t="inlineStr">
@@ -18532,7 +18532,7 @@
       </c>
       <c r="AT78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -18554,7 +18554,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -18594,7 +18594,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -18619,7 +18619,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -18629,7 +18629,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -18639,7 +18639,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -18649,7 +18649,7 @@
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X79" t="inlineStr">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="AB79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -18744,7 +18744,7 @@
       </c>
       <c r="AP79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ79" t="inlineStr">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="AT79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19946,12 +19946,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -19971,12 +19971,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -20121,7 +20121,7 @@
       </c>
       <c r="AM85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN85" t="inlineStr">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="AP85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ85" t="inlineStr">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -21146,12 +21146,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -21191,7 +21191,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="AT90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21333,12 +21333,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -21363,12 +21363,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -21383,7 +21383,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -21418,7 +21418,7 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
@@ -21528,7 +21528,7 @@
       </c>
       <c r="AP91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ91" t="inlineStr">
@@ -21538,7 +21538,7 @@
       </c>
       <c r="AR91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS91" t="inlineStr">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="AT91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22074,7 +22074,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -22099,7 +22099,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -22109,7 +22109,7 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -22119,7 +22119,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -22129,7 +22129,7 @@
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X94" t="inlineStr">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="AO94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AP94" t="inlineStr">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="AT94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -22548,7 +22548,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -22683,12 +22683,12 @@
       </c>
       <c r="AO96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AP96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AQ96" t="inlineStr">
@@ -22708,7 +22708,7 @@
       </c>
       <c r="AT96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -22730,7 +22730,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -22755,7 +22755,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -22940,7 +22940,7 @@
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22987,7 +22987,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -23077,7 +23077,7 @@
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr">
@@ -23087,7 +23087,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD98" t="inlineStr">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="AE98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AF98" t="inlineStr">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="AM98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN98" t="inlineStr">
@@ -23172,7 +23172,7 @@
       </c>
       <c r="AT98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23658,7 +23658,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -23723,7 +23723,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -23733,7 +23733,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -23743,7 +23743,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
@@ -23793,7 +23793,7 @@
       </c>
       <c r="AE101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF101" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="AP101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AQ101" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="AT101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
